--- a/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,106 +22,166 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>003780</t>
+  </si>
+  <si>
+    <t>001331</t>
+  </si>
+  <si>
+    <t>003142</t>
+  </si>
+  <si>
+    <t>001327</t>
+  </si>
+  <si>
+    <t>003663</t>
+  </si>
+  <si>
     <t>001325</t>
   </si>
   <si>
+    <t>001328</t>
+  </si>
+  <si>
+    <t>003143</t>
+  </si>
+  <si>
     <t>001326</t>
   </si>
   <si>
-    <t>001327</t>
-  </si>
-  <si>
-    <t>001328</t>
-  </si>
-  <si>
-    <t>001331</t>
-  </si>
-  <si>
     <t>001332</t>
   </si>
   <si>
-    <t>003142</t>
-  </si>
-  <si>
-    <t>003143</t>
-  </si>
-  <si>
-    <t>003663</t>
-  </si>
-  <si>
-    <t>003780</t>
+    <t>鹏华兴悦定期开放灵活配置混合</t>
+  </si>
+  <si>
+    <t>鹏华弘信灵活配置混合A</t>
+  </si>
+  <si>
+    <t>鹏华弘达灵活配置混合A</t>
+  </si>
+  <si>
+    <t>鹏华弘华灵活配置混合A</t>
+  </si>
+  <si>
+    <t>鹏华兴泰定期开放灵活配置混合</t>
   </si>
   <si>
     <t>鹏华弘和灵活配置混合A</t>
   </si>
   <si>
+    <t>鹏华弘华灵活配置混合C</t>
+  </si>
+  <si>
+    <t>鹏华弘达灵活配置混合C</t>
+  </si>
+  <si>
     <t>鹏华弘和灵活配置混合C</t>
   </si>
   <si>
-    <t>鹏华弘华灵活配置混合A</t>
-  </si>
-  <si>
-    <t>鹏华弘华灵活配置混合C</t>
-  </si>
-  <si>
-    <t>鹏华弘信灵活配置混合A</t>
-  </si>
-  <si>
     <t>鹏华弘信灵活配置混合C</t>
   </si>
   <si>
-    <t>鹏华弘达灵活配置混合A</t>
-  </si>
-  <si>
-    <t>鹏华弘达灵活配置混合C</t>
-  </si>
-  <si>
-    <t>鹏华兴泰定期开放灵活配置混合</t>
-  </si>
-  <si>
-    <t>鹏华兴悦定期开放灵活配置混合</t>
+    <t>8.42</t>
+  </si>
+  <si>
+    <t>8.52</t>
+  </si>
+  <si>
+    <t>8.04</t>
+  </si>
+  <si>
+    <t>8.97</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>23.25</t>
+  </si>
+  <si>
+    <t>23.33</t>
+  </si>
+  <si>
+    <t>23.34</t>
+  </si>
+  <si>
+    <t>24.63</t>
+  </si>
+  <si>
+    <t>22.33</t>
   </si>
   <si>
     <t>24.60</t>
   </si>
   <si>
-    <t>24.63</t>
-  </si>
-  <si>
-    <t>23.33</t>
-  </si>
-  <si>
-    <t>23.34</t>
-  </si>
-  <si>
-    <t>22.33</t>
-  </si>
-  <si>
-    <t>23.25</t>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>1.29</t>
   </si>
   <si>
     <t>1.33</t>
   </si>
   <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.38</t>
+    <t>0.1162</t>
+  </si>
+  <si>
+    <t>0.1159</t>
+  </si>
+  <si>
+    <t>0.1158</t>
+  </si>
+  <si>
+    <t>0.1157</t>
+  </si>
+  <si>
+    <t>0.1057</t>
+  </si>
+  <si>
+    <t>0.0533</t>
+  </si>
+  <si>
+    <t>0.0480</t>
+  </si>
+  <si>
+    <t>0.0400</t>
+  </si>
+  <si>
+    <t>0.0216</t>
   </si>
 </sst>
 </file>
@@ -479,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,204 +561,270 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1295,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -1216,13 +1311,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.55</v>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.15</v>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1889,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300441-鲍斯股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.85</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -980,7 +1129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1409,100 +1558,6 @@
       </c>
       <c r="H11" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003663</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华兴泰定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>22.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1577,22 +1632,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.01</t>
+          <t>22.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0892</t>
+          <t>0.0723</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1605,6 +1660,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1774,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
